--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4690.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4690.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Faheem Ashraf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>18/10/2017</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1020,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1067,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4176</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1114,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -1060,7 +1121,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1161,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -1108,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1260,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>09/11/2018</t>
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1359,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1412,7 +1470,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1464,7 +1522,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1562,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -1512,7 +1569,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1564,7 +1621,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1616,7 +1673,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1668,7 +1725,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1708,7 +1765,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>01/11/2020</t>
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4433</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1872,7 +1928,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1924,7 +1980,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2067,7 +2123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2089,7 +2145,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2126,7 +2182,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2163,7 +2219,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2200,7 +2256,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2237,7 +2293,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2274,7 +2330,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2311,7 +2367,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2348,7 +2404,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2385,7 +2441,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2422,7 +2478,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2459,7 +2515,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2496,7 +2552,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4176</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2533,7 +2589,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4177</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2570,7 +2626,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2607,7 +2663,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2644,7 +2700,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2681,7 +2737,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2718,7 +2774,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2755,7 +2811,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2792,7 +2848,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2829,7 +2885,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2866,7 +2922,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2903,7 +2959,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2940,7 +2996,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2977,7 +3033,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4433</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3014,7 +3070,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3051,7 +3107,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3088,7 +3144,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3125,7 +3181,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3162,7 +3218,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3199,7 +3255,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3225,6 +3281,533 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>0/34</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12.96%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.93%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4690.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4690.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3344,9 +3345,6 @@
       <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3362,9 +3360,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3407,10 +3402,6 @@
           <t>4225</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3423,135 +3414,539 @@
           <t>4227</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.93%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.02%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4176</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.93%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3559,29 +3954,12 @@
           <t>4292</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.83%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3591,13 +3969,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3607,13 +3978,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3623,13 +3987,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3637,27 +3994,14 @@
           <t>4458</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>8</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.82%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3667,27 +4011,14 @@
           <t>4459</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.40%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3697,29 +4028,12 @@
           <t>4460</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.31%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3727,29 +4041,12 @@
           <t>4472</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.55%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3757,29 +4054,12 @@
           <t>4473</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3787,29 +4067,12 @@
           <t>4476</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.02%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4690.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4690.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3345,6 +3344,9 @@
       <c r="B2" t="n">
         <v>7</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3360,6 +3362,9 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3402,6 +3407,10 @@
           <t>4225</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3414,6 +3423,10 @@
           <t>4227</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3429,6 +3442,9 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3454,6 +3470,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3526,6 +3543,10 @@
           <t>4287</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3568,6 +3589,10 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3580,6 +3605,10 @@
           <t>4432</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3592,6 +3621,10 @@
           <t>4433</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3777,302 +3810,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4176</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4177</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4194</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4197</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4227</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4433</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4690.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4690.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>18/10/2017</t>
@@ -1020,6 +1020,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -1067,6 +1068,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>18/07/2018</t>
@@ -1114,6 +1116,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>20/07/2018</t>
@@ -1161,6 +1164,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -1260,6 +1264,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>09/11/2018</t>
@@ -1359,6 +1364,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -1562,6 +1568,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -1765,6 +1772,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>01/11/2020</t>
@@ -3287,531 +3295,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4177</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4194</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4197</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12.96%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4227</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.93%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.83%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4433</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.82%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.40%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.31%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.55%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.51%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.02%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>